--- a/experiments/r2-diff/data-table.xlsx
+++ b/experiments/r2-diff/data-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangchenghou/Dropbox/research-projects/2022-calprs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2DDCA-9FE4-924E-9A12-EE1297E64C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F901D6-B53D-4D46-BE79-8B003D70FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-2620" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trait-info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1685,6 +1685,18 @@
   </si>
   <si>
     <t>Deprivation index</t>
+  </si>
+  <si>
+    <t>darker_hair</t>
+  </si>
+  <si>
+    <t>Hair colour</t>
+  </si>
+  <si>
+    <t>eosinophil</t>
+  </si>
+  <si>
+    <t>Eosinophil count</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3433,43 +3445,43 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>551</v>
       </c>
       <c r="B120" t="s">
-        <v>380</v>
+        <v>552</v>
       </c>
       <c r="D120" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="2" t="s">
-        <v>525</v>
+      <c r="A121" t="s">
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>526</v>
+        <v>380</v>
       </c>
       <c r="D121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>240</v>
+      <c r="A122" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="B122" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="D122" t="s">
-        <v>505</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D123" t="s">
         <v>505</v>
@@ -3477,10 +3489,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D124" t="s">
         <v>505</v>
@@ -3488,49 +3500,49 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>395</v>
-      </c>
-      <c r="C125" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="D125" t="s">
-        <v>367</v>
-      </c>
-      <c r="E125" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>492</v>
+        <v>395</v>
+      </c>
+      <c r="C126" t="s">
+        <v>516</v>
       </c>
       <c r="D126" t="s">
-        <v>375</v>
+        <v>367</v>
+      </c>
+      <c r="E126" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
         <v>367</v>
@@ -3538,10 +3550,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D129" t="s">
         <v>367</v>
@@ -3549,10 +3561,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B130" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D130" t="s">
         <v>367</v>
@@ -3560,10 +3572,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D131" t="s">
         <v>367</v>
@@ -3571,10 +3583,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D132" t="s">
         <v>367</v>
@@ -3582,30 +3594,24 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B133" t="s">
-        <v>428</v>
-      </c>
-      <c r="C133" t="s">
-        <v>529</v>
+        <v>420</v>
       </c>
       <c r="D133" t="s">
-        <v>458</v>
-      </c>
-      <c r="E133" t="s">
-        <v>507</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B134" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C134" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D134" t="s">
         <v>458</v>
@@ -3616,21 +3622,27 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B135" t="s">
-        <v>495</v>
+        <v>423</v>
+      </c>
+      <c r="C135" t="s">
+        <v>530</v>
       </c>
       <c r="D135" t="s">
-        <v>375</v>
+        <v>458</v>
+      </c>
+      <c r="E135" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B136" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D136" t="s">
         <v>375</v>
@@ -3638,35 +3650,35 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D137" t="s">
         <v>375</v>
       </c>
-      <c r="E137" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
       <c r="D138" t="s">
-        <v>389</v>
+        <v>375</v>
+      </c>
+      <c r="E138" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D139" t="s">
         <v>389</v>
@@ -3674,7 +3686,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
         <v>394</v>
@@ -3685,21 +3697,21 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="D141" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B142" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D142" t="s">
         <v>458</v>
@@ -3707,60 +3719,57 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B143" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="D143" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B144" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="D145" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B146" t="s">
-        <v>402</v>
-      </c>
-      <c r="C146" t="s">
-        <v>264</v>
+        <v>409</v>
       </c>
       <c r="D146" t="s">
         <v>367</v>
       </c>
-      <c r="E146" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="C147" t="s">
+        <v>264</v>
       </c>
       <c r="D147" t="s">
         <v>367</v>
@@ -3771,82 +3780,85 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="D148" t="s">
-        <v>505</v>
+        <v>367</v>
+      </c>
+      <c r="E148" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D149" t="s">
-        <v>226</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
-      </c>
-      <c r="C150" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="D150" t="s">
-        <v>367</v>
-      </c>
-      <c r="E150" t="s">
-        <v>507</v>
+        <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>373</v>
+        <v>403</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
       </c>
       <c r="D151" t="s">
-        <v>375</v>
+        <v>367</v>
+      </c>
+      <c r="E151" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>485</v>
+        <v>373</v>
       </c>
       <c r="D152" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="D153" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D154" t="s">
         <v>458</v>
@@ -3854,32 +3866,32 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="D155" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>502</v>
+        <v>366</v>
       </c>
       <c r="D156" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D157" t="s">
         <v>221</v>
@@ -3887,49 +3899,49 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
-      </c>
-      <c r="C158" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="D158" t="s">
-        <v>367</v>
-      </c>
-      <c r="E158" t="s">
-        <v>507</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>370</v>
+      </c>
+      <c r="C159" t="s">
+        <v>518</v>
       </c>
       <c r="D159" t="s">
-        <v>458</v>
+        <v>367</v>
+      </c>
+      <c r="E159" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>372</v>
+        <v>444</v>
       </c>
       <c r="D160" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B161" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D161" t="s">
         <v>375</v>
@@ -3937,49 +3949,49 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B162" t="s">
-        <v>468</v>
-      </c>
-      <c r="C162" t="s">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="D162" t="s">
-        <v>458</v>
-      </c>
-      <c r="E162" t="s">
-        <v>507</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B163" t="s">
-        <v>484</v>
+        <v>468</v>
+      </c>
+      <c r="C163" t="s">
+        <v>280</v>
       </c>
       <c r="D163" t="s">
-        <v>367</v>
+        <v>458</v>
+      </c>
+      <c r="E163" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B164" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="D164" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="D165" t="s">
         <v>375</v>
@@ -3987,10 +3999,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D166" t="s">
         <v>375</v>
@@ -3998,43 +4010,43 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D167" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D168" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="D169" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B170" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D170" t="s">
         <v>458</v>
@@ -4042,10 +4054,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B171" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D171" t="s">
         <v>458</v>
@@ -4053,10 +4065,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B172" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D172" t="s">
         <v>458</v>
@@ -4064,10 +4076,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B173" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="D173" t="s">
         <v>458</v>
@@ -4075,38 +4087,38 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
-      </c>
-      <c r="C174" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="D174" t="s">
-        <v>367</v>
-      </c>
-      <c r="E174" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B175" t="s">
-        <v>455</v>
+        <v>407</v>
+      </c>
+      <c r="C175" t="s">
+        <v>521</v>
       </c>
       <c r="D175" t="s">
-        <v>458</v>
+        <v>367</v>
+      </c>
+      <c r="E175" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B176" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D176" t="s">
         <v>458</v>
@@ -4114,13 +4126,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B177" t="s">
-        <v>461</v>
-      </c>
-      <c r="C177" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="D177" t="s">
         <v>458</v>
@@ -4128,10 +4137,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B178" t="s">
-        <v>462</v>
+        <v>461</v>
+      </c>
+      <c r="C178" t="s">
+        <v>512</v>
       </c>
       <c r="D178" t="s">
         <v>458</v>
@@ -4139,132 +4151,132 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="D179" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B180" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="D180" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>299</v>
-      </c>
-      <c r="B181" t="s">
-        <v>411</v>
+      <c r="A181" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="D181" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B182" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="D182" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B183" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="D183" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B184" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="D184" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B185" t="s">
-        <v>466</v>
-      </c>
-      <c r="C185" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="D185" t="s">
         <v>458</v>
-      </c>
-      <c r="E185" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
-      </c>
-      <c r="C186" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="D186" t="s">
-        <v>367</v>
-      </c>
-      <c r="E186" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B187" t="s">
-        <v>391</v>
+        <v>466</v>
+      </c>
+      <c r="C187" t="s">
+        <v>531</v>
       </c>
       <c r="D187" t="s">
-        <v>367</v>
+        <v>458</v>
+      </c>
+      <c r="E187" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B188" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="C188" t="s">
+        <v>517</v>
       </c>
       <c r="D188" t="s">
         <v>367</v>
       </c>
+      <c r="E188" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B189" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="D189" t="s">
         <v>367</v>
@@ -4272,138 +4284,132 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="D190" t="s">
-        <v>458</v>
-      </c>
-      <c r="E190" t="s">
-        <v>507</v>
+        <v>367</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B191" t="s">
-        <v>467</v>
+        <v>369</v>
       </c>
       <c r="D191" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B192" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="D192" t="s">
-        <v>367</v>
+        <v>458</v>
+      </c>
+      <c r="E192" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B193" t="s">
-        <v>422</v>
-      </c>
-      <c r="C193" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="D193" t="s">
         <v>458</v>
-      </c>
-      <c r="E193" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B194" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="D194" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B195" t="s">
-        <v>463</v>
+        <v>422</v>
+      </c>
+      <c r="C195" t="s">
+        <v>510</v>
       </c>
       <c r="D195" t="s">
         <v>458</v>
+      </c>
+      <c r="E195" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B196" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="D196" t="s">
         <v>458</v>
-      </c>
-      <c r="E196" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B197" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="D197" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B198" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D198" t="s">
         <v>458</v>
+      </c>
+      <c r="E198" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B199" t="s">
-        <v>434</v>
-      </c>
-      <c r="C199" t="s">
-        <v>509</v>
+        <v>408</v>
       </c>
       <c r="D199" t="s">
-        <v>458</v>
-      </c>
-      <c r="E199" t="s">
-        <v>507</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B200" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="D200" t="s">
         <v>458</v>
@@ -4411,21 +4417,27 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B201" t="s">
-        <v>430</v>
+        <v>434</v>
+      </c>
+      <c r="C201" t="s">
+        <v>509</v>
       </c>
       <c r="D201" t="s">
         <v>458</v>
+      </c>
+      <c r="E201" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B202" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D202" t="s">
         <v>458</v>
@@ -4433,10 +4445,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B203" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D203" t="s">
         <v>458</v>
@@ -4444,24 +4456,21 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B204" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D204" t="s">
         <v>458</v>
-      </c>
-      <c r="E204" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B205" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="D205" t="s">
         <v>458</v>
@@ -4469,21 +4478,24 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B206" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="D206" t="s">
-        <v>367</v>
+        <v>458</v>
+      </c>
+      <c r="E206" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B207" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D207" t="s">
         <v>458</v>
@@ -4491,24 +4503,21 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B208" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
       <c r="D208" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B209" t="s">
-        <v>472</v>
-      </c>
-      <c r="C209" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
       <c r="D209" t="s">
         <v>458</v>
@@ -4516,24 +4525,24 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B210" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="D210" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C211" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D211" t="s">
         <v>458</v>
@@ -4541,32 +4550,35 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B212" t="s">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="D212" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B213" t="s">
-        <v>414</v>
+        <v>479</v>
+      </c>
+      <c r="C213" t="s">
+        <v>513</v>
       </c>
       <c r="D213" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B214" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="D214" t="s">
         <v>458</v>
@@ -4574,10 +4586,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B215" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="D215" t="s">
         <v>367</v>
@@ -4585,21 +4597,21 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B216" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="D216" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B217" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="D217" t="s">
         <v>367</v>
@@ -4607,32 +4619,32 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B218" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D218" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B219" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D219" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B220" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="D220" t="s">
         <v>458</v>
@@ -4640,21 +4652,21 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B221" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="D221" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="D222" t="s">
         <v>458</v>
@@ -4662,10 +4674,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B223" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="D223" t="s">
         <v>458</v>
@@ -4673,10 +4685,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D224" t="s">
         <v>458</v>
@@ -4684,93 +4696,93 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B225" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="D225" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B226" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="D226" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B227" t="s">
-        <v>494</v>
+        <v>376</v>
       </c>
       <c r="D227" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B228" t="s">
-        <v>483</v>
+        <v>385</v>
       </c>
       <c r="D228" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B229" t="s">
-        <v>401</v>
-      </c>
-      <c r="C229" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="D229" t="s">
-        <v>505</v>
-      </c>
-      <c r="E229" t="s">
-        <v>507</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B230" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B231" t="s">
-        <v>383</v>
+        <v>401</v>
+      </c>
+      <c r="C231" t="s">
+        <v>520</v>
       </c>
       <c r="D231" t="s">
-        <v>375</v>
+        <v>505</v>
+      </c>
+      <c r="E231" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B232" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="D232" t="s">
         <v>458</v>
@@ -4778,10 +4790,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B233" t="s">
-        <v>486</v>
+        <v>383</v>
       </c>
       <c r="D233" t="s">
         <v>375</v>
@@ -4789,43 +4801,43 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B234" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="D234" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B235" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D235" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B236" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D236" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B237" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="D237" t="s">
         <v>458</v>
@@ -4833,93 +4845,87 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B238" t="s">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="D238" t="s">
-        <v>505</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B239" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="D239" t="s">
-        <v>135</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B240" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="D240" t="s">
-        <v>367</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B241" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="D241" t="s">
-        <v>367</v>
+        <v>135</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B242" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="D242" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B243" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="D243" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B244" t="s">
-        <v>396</v>
-      </c>
-      <c r="C244" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
       <c r="D244" t="s">
-        <v>367</v>
-      </c>
-      <c r="E244" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="D245" t="s">
         <v>458</v>
@@ -4927,43 +4933,71 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B246" t="s">
-        <v>378</v>
+        <v>396</v>
+      </c>
+      <c r="C246" t="s">
+        <v>515</v>
       </c>
       <c r="D246" t="s">
-        <v>375</v>
+        <v>367</v>
+      </c>
+      <c r="E246" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B247" t="s">
-        <v>398</v>
-      </c>
-      <c r="C247" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="D247" t="s">
-        <v>375</v>
-      </c>
-      <c r="E247" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>364</v>
+      </c>
+      <c r="B248" t="s">
+        <v>378</v>
+      </c>
+      <c r="D248" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>365</v>
+      </c>
+      <c r="B249" t="s">
+        <v>398</v>
+      </c>
+      <c r="C249" t="s">
+        <v>519</v>
+      </c>
+      <c r="D249" t="s">
+        <v>375</v>
+      </c>
+      <c r="E249" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
         <v>522</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B250" t="s">
         <v>523</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C250" t="s">
         <v>524</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D250" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4976,7 +5010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41314D1-53EC-1740-9545-EE5629821DDF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5091,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E6B2A-8130-3A48-8B4D-3A7B294F9E0E}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5159,7 +5193,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>535</v>

--- a/experiments/r2-diff/data-table.xlsx
+++ b/experiments/r2-diff/data-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangchenghou/Dropbox/research-projects/2022-calprs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangchenghou/Dropbox/research/2022-calpgs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F901D6-B53D-4D46-BE79-8B003D70FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF31EB6-D8FD-244F-A374-313579085064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trait-info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1180,9 +1180,6 @@
     <t>Ease of skin tanning</t>
   </si>
   <si>
-    <t>Hair colour (natural, before greying)</t>
-  </si>
-  <si>
     <t>Age first had sexual intercourse</t>
   </si>
   <si>
@@ -1648,9 +1645,6 @@
     <t>blood</t>
   </si>
   <si>
-    <t>interseting</t>
-  </si>
-  <si>
     <t>AGE</t>
   </si>
   <si>
@@ -1697,6 +1691,12 @@
   </si>
   <si>
     <t>Eosinophil count</t>
+  </si>
+  <si>
+    <t>Darker hair colour (natural, before greying)</t>
+  </si>
+  <si>
+    <t>Red hair colour (natural, before greying)</t>
   </si>
 </sst>
 </file>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2106,19 +2106,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2308,7 +2308,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2322,7 +2322,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2336,7 +2336,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2468,7 +2468,7 @@
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2479,7 +2479,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2490,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2501,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2647,7 +2647,7 @@
         <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2804,7 +2804,7 @@
         <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3307,7 +3307,7 @@
         <v>227</v>
       </c>
       <c r="B108" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D108" t="s">
         <v>221</v>
@@ -3318,10 +3318,10 @@
         <v>228</v>
       </c>
       <c r="B109" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D109" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3329,7 +3329,7 @@
         <v>229</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
         <v>367</v>
@@ -3340,13 +3340,13 @@
         <v>230</v>
       </c>
       <c r="B111" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C111" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3354,13 +3354,13 @@
         <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D112" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3379,7 +3379,7 @@
         <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D114" t="s">
         <v>367</v>
@@ -3390,7 +3390,7 @@
         <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D115" t="s">
         <v>367</v>
@@ -3401,10 +3401,10 @@
         <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3412,7 +3412,7 @@
         <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D117" t="s">
         <v>135</v>
@@ -3423,13 +3423,13 @@
         <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D118" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3437,7 +3437,7 @@
         <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>553</v>
       </c>
       <c r="D119" t="s">
         <v>367</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B120" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D120" t="s">
         <v>367</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B122" t="s">
         <v>525</v>
-      </c>
-      <c r="B122" t="s">
-        <v>526</v>
       </c>
       <c r="D122" t="s">
         <v>367</v>
@@ -3481,10 +3481,10 @@
         <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3492,10 +3492,10 @@
         <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3503,10 +3503,10 @@
         <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D125" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3514,16 +3514,16 @@
         <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C126" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D126" t="s">
         <v>367</v>
       </c>
       <c r="E126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3531,7 +3531,7 @@
         <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D127" t="s">
         <v>375</v>
@@ -3542,7 +3542,7 @@
         <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D128" t="s">
         <v>367</v>
@@ -3553,7 +3553,7 @@
         <v>246</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D129" t="s">
         <v>367</v>
@@ -3564,7 +3564,7 @@
         <v>247</v>
       </c>
       <c r="B130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D130" t="s">
         <v>367</v>
@@ -3575,7 +3575,7 @@
         <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D131" t="s">
         <v>367</v>
@@ -3586,7 +3586,7 @@
         <v>249</v>
       </c>
       <c r="B132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D132" t="s">
         <v>367</v>
@@ -3597,7 +3597,7 @@
         <v>250</v>
       </c>
       <c r="B133" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D133" t="s">
         <v>367</v>
@@ -3608,16 +3608,16 @@
         <v>251</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D134" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E134" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3625,16 +3625,16 @@
         <v>252</v>
       </c>
       <c r="B135" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C135" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D135" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3642,7 +3642,7 @@
         <v>253</v>
       </c>
       <c r="B136" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D136" t="s">
         <v>375</v>
@@ -3653,7 +3653,7 @@
         <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D137" t="s">
         <v>375</v>
@@ -3664,13 +3664,13 @@
         <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D138" t="s">
         <v>375</v>
       </c>
       <c r="E138" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3678,10 +3678,10 @@
         <v>256</v>
       </c>
       <c r="B139" t="s">
+        <v>387</v>
+      </c>
+      <c r="D139" t="s">
         <v>388</v>
-      </c>
-      <c r="D139" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3689,10 +3689,10 @@
         <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3700,10 +3700,10 @@
         <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3711,10 +3711,10 @@
         <v>259</v>
       </c>
       <c r="B142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3722,10 +3722,10 @@
         <v>260</v>
       </c>
       <c r="B143" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D143" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3733,10 +3733,10 @@
         <v>261</v>
       </c>
       <c r="B144" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3744,7 +3744,7 @@
         <v>262</v>
       </c>
       <c r="B145" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D145" t="s">
         <v>226</v>
@@ -3755,7 +3755,7 @@
         <v>263</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D146" t="s">
         <v>367</v>
@@ -3766,7 +3766,7 @@
         <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C147" t="s">
         <v>264</v>
@@ -3775,7 +3775,7 @@
         <v>367</v>
       </c>
       <c r="E147" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3783,13 +3783,13 @@
         <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D148" t="s">
         <v>367</v>
       </c>
       <c r="E148" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3797,10 +3797,10 @@
         <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D149" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3808,7 +3808,7 @@
         <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D150" t="s">
         <v>226</v>
@@ -3819,7 +3819,7 @@
         <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C151" t="s">
         <v>268</v>
@@ -3828,7 +3828,7 @@
         <v>367</v>
       </c>
       <c r="E151" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3847,7 +3847,7 @@
         <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D153" t="s">
         <v>367</v>
@@ -3858,10 +3858,10 @@
         <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D154" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3869,10 +3869,10 @@
         <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3891,7 +3891,7 @@
         <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D157" t="s">
         <v>221</v>
@@ -3902,7 +3902,7 @@
         <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -3916,13 +3916,13 @@
         <v>370</v>
       </c>
       <c r="C159" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D159" t="s">
         <v>367</v>
       </c>
       <c r="E159" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3930,10 +3930,10 @@
         <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D160" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3963,16 +3963,16 @@
         <v>280</v>
       </c>
       <c r="B163" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C163" t="s">
         <v>280</v>
       </c>
       <c r="D163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E163" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3980,7 +3980,7 @@
         <v>281</v>
       </c>
       <c r="B164" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D164" t="s">
         <v>367</v>
@@ -4002,7 +4002,7 @@
         <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D166" t="s">
         <v>375</v>
@@ -4013,7 +4013,7 @@
         <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D167" t="s">
         <v>375</v>
@@ -4035,7 +4035,7 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D169" t="s">
         <v>375</v>
@@ -4046,10 +4046,10 @@
         <v>287</v>
       </c>
       <c r="B170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D170" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4057,10 +4057,10 @@
         <v>288</v>
       </c>
       <c r="B171" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D171" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4068,10 +4068,10 @@
         <v>289</v>
       </c>
       <c r="B172" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4079,10 +4079,10 @@
         <v>290</v>
       </c>
       <c r="B173" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4090,10 +4090,10 @@
         <v>291</v>
       </c>
       <c r="B174" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D174" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4101,16 +4101,16 @@
         <v>292</v>
       </c>
       <c r="B175" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C175" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D175" t="s">
         <v>367</v>
       </c>
       <c r="E175" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4118,10 +4118,10 @@
         <v>293</v>
       </c>
       <c r="B176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4129,10 +4129,10 @@
         <v>294</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D177" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4140,13 +4140,13 @@
         <v>295</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C178" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D178" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4154,10 +4154,10 @@
         <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D179" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4165,7 +4165,7 @@
         <v>297</v>
       </c>
       <c r="B180" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D180" t="s">
         <v>367</v>
@@ -4173,13 +4173,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D181" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4187,10 +4187,10 @@
         <v>298</v>
       </c>
       <c r="B182" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D182" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4198,7 +4198,7 @@
         <v>299</v>
       </c>
       <c r="B183" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D183" t="s">
         <v>367</v>
@@ -4209,7 +4209,7 @@
         <v>300</v>
       </c>
       <c r="B184" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D184" t="s">
         <v>367</v>
@@ -4220,10 +4220,10 @@
         <v>301</v>
       </c>
       <c r="B185" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D185" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4231,10 +4231,10 @@
         <v>302</v>
       </c>
       <c r="B186" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D186" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4242,16 +4242,16 @@
         <v>303</v>
       </c>
       <c r="B187" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C187" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D187" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E187" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4259,16 +4259,16 @@
         <v>304</v>
       </c>
       <c r="B188" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C188" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D188" t="s">
         <v>367</v>
       </c>
       <c r="E188" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4276,7 +4276,7 @@
         <v>305</v>
       </c>
       <c r="B189" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D189" t="s">
         <v>367</v>
@@ -4287,7 +4287,7 @@
         <v>306</v>
       </c>
       <c r="B190" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D190" t="s">
         <v>367</v>
@@ -4309,13 +4309,13 @@
         <v>308</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D192" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E192" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4323,10 +4323,10 @@
         <v>309</v>
       </c>
       <c r="B193" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D193" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4334,7 +4334,7 @@
         <v>310</v>
       </c>
       <c r="B194" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D194" t="s">
         <v>367</v>
@@ -4345,16 +4345,16 @@
         <v>311</v>
       </c>
       <c r="B195" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C195" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D195" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E195" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4362,10 +4362,10 @@
         <v>312</v>
       </c>
       <c r="B196" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D196" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4373,10 +4373,10 @@
         <v>313</v>
       </c>
       <c r="B197" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D197" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4384,13 +4384,13 @@
         <v>314</v>
       </c>
       <c r="B198" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D198" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E198" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4398,7 +4398,7 @@
         <v>315</v>
       </c>
       <c r="B199" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D199" t="s">
         <v>367</v>
@@ -4409,10 +4409,10 @@
         <v>316</v>
       </c>
       <c r="B200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D200" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4420,16 +4420,16 @@
         <v>317</v>
       </c>
       <c r="B201" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C201" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D201" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E201" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4437,10 +4437,10 @@
         <v>318</v>
       </c>
       <c r="B202" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D202" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4448,10 +4448,10 @@
         <v>319</v>
       </c>
       <c r="B203" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4459,10 +4459,10 @@
         <v>320</v>
       </c>
       <c r="B204" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D204" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4470,10 +4470,10 @@
         <v>321</v>
       </c>
       <c r="B205" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D205" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4481,13 +4481,13 @@
         <v>322</v>
       </c>
       <c r="B206" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E206" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4495,10 +4495,10 @@
         <v>323</v>
       </c>
       <c r="B207" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4517,10 +4517,10 @@
         <v>325</v>
       </c>
       <c r="B209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D209" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4528,10 +4528,10 @@
         <v>326</v>
       </c>
       <c r="B210" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D210" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4539,13 +4539,13 @@
         <v>327</v>
       </c>
       <c r="B211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C211" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D211" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4564,13 +4564,13 @@
         <v>329</v>
       </c>
       <c r="B213" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C213" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D213" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4578,10 +4578,10 @@
         <v>330</v>
       </c>
       <c r="B214" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D214" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4589,7 +4589,7 @@
         <v>331</v>
       </c>
       <c r="B215" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D215" t="s">
         <v>367</v>
@@ -4600,10 +4600,10 @@
         <v>332</v>
       </c>
       <c r="B216" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D216" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4622,7 +4622,7 @@
         <v>334</v>
       </c>
       <c r="B218" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D218" t="s">
         <v>367</v>
@@ -4633,7 +4633,7 @@
         <v>335</v>
       </c>
       <c r="B219" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D219" t="s">
         <v>367</v>
@@ -4644,10 +4644,10 @@
         <v>336</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D220" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4655,10 +4655,10 @@
         <v>337</v>
       </c>
       <c r="B221" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D221" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4666,10 +4666,10 @@
         <v>338</v>
       </c>
       <c r="B222" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D222" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4677,10 +4677,10 @@
         <v>339</v>
       </c>
       <c r="B223" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D223" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4688,10 +4688,10 @@
         <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D224" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4699,10 +4699,10 @@
         <v>341</v>
       </c>
       <c r="B225" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D225" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4710,10 +4710,10 @@
         <v>342</v>
       </c>
       <c r="B226" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D226" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4732,7 +4732,7 @@
         <v>344</v>
       </c>
       <c r="B228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D228" t="s">
         <v>375</v>
@@ -4743,7 +4743,7 @@
         <v>345</v>
       </c>
       <c r="B229" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D229" t="s">
         <v>367</v>
@@ -4754,7 +4754,7 @@
         <v>346</v>
       </c>
       <c r="B230" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D230" t="s">
         <v>367</v>
@@ -4765,16 +4765,16 @@
         <v>347</v>
       </c>
       <c r="B231" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C231" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D231" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E231" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4782,10 +4782,10 @@
         <v>348</v>
       </c>
       <c r="B232" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D232" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4793,7 +4793,7 @@
         <v>349</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D233" t="s">
         <v>375</v>
@@ -4804,10 +4804,10 @@
         <v>350</v>
       </c>
       <c r="B234" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D234" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4815,7 +4815,7 @@
         <v>351</v>
       </c>
       <c r="B235" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D235" t="s">
         <v>375</v>
@@ -4826,7 +4826,7 @@
         <v>352</v>
       </c>
       <c r="B236" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D236" t="s">
         <v>375</v>
@@ -4837,10 +4837,10 @@
         <v>353</v>
       </c>
       <c r="B237" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D237" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4848,7 +4848,7 @@
         <v>354</v>
       </c>
       <c r="B238" t="s">
-        <v>382</v>
+        <v>554</v>
       </c>
       <c r="D238" t="s">
         <v>367</v>
@@ -4859,10 +4859,10 @@
         <v>355</v>
       </c>
       <c r="B239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D239" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4870,10 +4870,10 @@
         <v>356</v>
       </c>
       <c r="B240" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D240" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4881,7 +4881,7 @@
         <v>357</v>
       </c>
       <c r="B241" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D241" t="s">
         <v>135</v>
@@ -4892,7 +4892,7 @@
         <v>358</v>
       </c>
       <c r="B242" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D242" t="s">
         <v>367</v>
@@ -4903,7 +4903,7 @@
         <v>359</v>
       </c>
       <c r="B243" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D243" t="s">
         <v>367</v>
@@ -4914,10 +4914,10 @@
         <v>360</v>
       </c>
       <c r="B244" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4925,10 +4925,10 @@
         <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D245" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4936,16 +4936,16 @@
         <v>362</v>
       </c>
       <c r="B246" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C246" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D246" t="s">
         <v>367</v>
       </c>
       <c r="E246" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4953,10 +4953,10 @@
         <v>363</v>
       </c>
       <c r="B247" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D247" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4975,27 +4975,27 @@
         <v>365</v>
       </c>
       <c r="B249" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C249" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D249" t="s">
         <v>375</v>
       </c>
       <c r="E249" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
+        <v>521</v>
+      </c>
+      <c r="B250" t="s">
         <v>522</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>523</v>
-      </c>
-      <c r="C250" t="s">
-        <v>524</v>
       </c>
       <c r="D250" t="s">
         <v>375</v>
@@ -5010,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41314D1-53EC-1740-9545-EE5629821DDF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5022,66 +5022,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>270</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5097,15 +5097,15 @@
         <v>278</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>365</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5123,10 +5123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E6B2A-8130-3A48-8B4D-3A7B294F9E0E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,34 +5137,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>533</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5172,7 +5169,7 @@
         <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5180,36 +5177,36 @@
         <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
         <v>535</v>
@@ -5217,18 +5214,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/r2-diff/data-table.xlsx
+++ b/experiments/r2-diff/data-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangchenghou/Dropbox/research/2022-calpgs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF31EB6-D8FD-244F-A374-313579085064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B4D8E-E54D-EB4E-9719-4794427C93F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trait-info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5010,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41314D1-53EC-1740-9545-EE5629821DDF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5123,10 +5123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E6B2A-8130-3A48-8B4D-3A7B294F9E0E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5206,17 +5206,22 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>365</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>535</v>
       </c>
     </row>
